--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B73DC6-7ED7-42D5-8096-BDE46379C418}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,29 +142,29 @@
     <t>TIM8</t>
   </si>
   <si>
-    <t>EXTI</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
     <t>PC10</t>
   </si>
   <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>PE5</t>
+    <t>LINE3: Camera</t>
+  </si>
+  <si>
+    <t>MOTOR1</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>DIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +172,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,12 +222,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,19 +244,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,16 +557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +592,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -558,9 +613,12 @@
       <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -581,7 +639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -603,7 +661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -625,12 +683,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -646,7 +704,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -662,7 +720,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -678,7 +736,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -694,42 +752,46 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B73DC6-7ED7-42D5-8096-BDE46379C418}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC82E52-C792-45E7-9275-65EB6D60267D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>TIM1</t>
   </si>
@@ -158,6 +158,30 @@
   </si>
   <si>
     <t>DIR</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>MOTOR2</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>MOTOR3</t>
+  </si>
+  <si>
+    <t>PA12</t>
   </si>
 </sst>
 </file>
@@ -558,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +793,9 @@
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -787,10 +813,57 @@
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC82E52-C792-45E7-9275-65EB6D60267D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6906038F-78C9-47BF-B0E9-07A6FC4CD7C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>TIM1</t>
   </si>
@@ -182,13 +182,16 @@
   </si>
   <si>
     <t>PA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +221,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +269,11 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -284,13 +299,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -299,8 +315,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -585,7 +603,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +825,7 @@
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -822,47 +840,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6906038F-78C9-47BF-B0E9-07A6FC4CD7C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD9A25-0516-4303-B9A3-DD5C27613452}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>TIM1</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PD2</t>
   </si>
 </sst>
 </file>
@@ -600,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +858,7 @@
       <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
@@ -863,7 +866,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -887,6 +890,16 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
